--- a/Khảo sát trang tin tuyển dụng.xlsx
+++ b/Khảo sát trang tin tuyển dụng.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung Nguyen\OneDrive\Desktop\DevWorkSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB33E7B-BB7E-4ABB-885D-A04591207353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C1388-4DF0-4DA8-83A2-0ABC7D060385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" activeTab="1" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Thiết kế DB" sheetId="3" r:id="rId3"/>
+    <sheet name="Khảo sát" sheetId="1" r:id="rId1"/>
+    <sheet name="CSS Selector Devwork" sheetId="2" r:id="rId2"/>
+    <sheet name="ETL Dữ liệu " sheetId="4" r:id="rId3"/>
+    <sheet name="Thiết kế DB" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
   <si>
     <t xml:space="preserve">Trường </t>
   </si>
@@ -471,6 +472,28 @@
   </si>
   <si>
     <t>v ( Không có cụ thể nhưng có thời gian còn lại )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL </t>
+  </si>
+  <si>
+    <t>.strip()</t>
+  </si>
+  <si>
+    <t>Bỏ đi \n character và khoảng trắng</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>sử dụng thư viện re để lấy ra 2 số 
+vd: 10-12 triệu -&gt; ['10','12'] -&gt; Lấy ra lương trung bình -&gt; 11</t>
+  </si>
+  <si>
+    <t>- x năm
+- Trên x năm 
+- Dưới x năm 
+- Chưa có kinh nghiệm</t>
   </si>
 </sst>
 </file>
@@ -524,12 +547,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81F992-EB71-4923-B6F3-CCDD3EB17632}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D18" sqref="B18:D18"/>
     </sheetView>
@@ -1125,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C9314B-945E-4F79-9FD7-21270EB31E69}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1493,12 +1519,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810D0EB-08A8-4A32-97EB-C37E0C61C16C}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90621B-93AA-4455-9672-35B8A66C2E9E}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B18"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Khảo sát trang tin tuyển dụng.xlsx
+++ b/Khảo sát trang tin tuyển dụng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung Nguyen\OneDrive\Desktop\DevWorkSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C1388-4DF0-4DA8-83A2-0ABC7D060385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047B169-1948-4B82-A9D8-4E9272D2A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Khảo sát" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
   <si>
     <t xml:space="preserve">Trường </t>
   </si>
@@ -494,6 +494,10 @@
 - Trên x năm 
 - Dưới x năm 
 - Chưa có kinh nghiệm</t>
+  </si>
+  <si>
+    <t>+Cách 1: sử dụng thư viện re , dùng re.findall()
++Cách 2 : Sử lý chuỗi dùng split(), replace()</t>
   </si>
 </sst>
 </file>
@@ -547,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -556,6 +560,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810D0EB-08A8-4A32-97EB-C37E0C61C16C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1622,6 +1629,9 @@
       </c>
       <c r="B14" s="5" t="s">
         <v>148</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/Khảo sát trang tin tuyển dụng.xlsx
+++ b/Khảo sát trang tin tuyển dụng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung Nguyen\OneDrive\Desktop\DevWorkSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F047B169-1948-4B82-A9D8-4E9272D2A2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00860F30-C6A2-48BE-A694-ADF02671E4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
   <si>
     <t xml:space="preserve">Trường </t>
   </si>
@@ -498,6 +498,11 @@
   <si>
     <t>+Cách 1: sử dụng thư viện re , dùng re.findall()
 +Cách 2 : Sử lý chuỗi dùng split(), replace()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ x-x triệu 
++ Dưới x triệu 
++ Trên x triệu </t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1535,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1618,7 +1623,9 @@
       <c r="A13" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>147</v>
       </c>

--- a/Khảo sát trang tin tuyển dụng.xlsx
+++ b/Khảo sát trang tin tuyển dụng.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung Nguyen\OneDrive\Desktop\DevWorkSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00860F30-C6A2-48BE-A694-ADF02671E4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292471D2-4AEA-4842-ADC6-A1ACD3031AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Khảo sát" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS Selector Devwork" sheetId="2" r:id="rId2"/>
-    <sheet name="ETL Dữ liệu " sheetId="4" r:id="rId3"/>
-    <sheet name="Thiết kế DB" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="CSS Selector Devwork" sheetId="2" r:id="rId3"/>
+    <sheet name="ETL Dữ liệu " sheetId="4" r:id="rId4"/>
+    <sheet name="Thiết kế DB" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,8 +28,105 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Trung Nguyen</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{61440DA3-A365-44AE-9E36-3CBC937CFE62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>yêu cầu đăng nhập mới xem được lương</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{97F7C66C-C09F-49F2-8C2A-594B9CE35B70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Trung Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Tất cả là tiền đô 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{6E0CBC25-6BB5-40A8-AE15-BFC853C94EB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trung Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+xuất hiện trong phần yêu cầu </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{7CAE425E-E352-41CC-A83C-F6AD03F4DA22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Trung Nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Có thể lấy trong yêu cầu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="184">
   <si>
     <t xml:space="preserve">Trường </t>
   </si>
@@ -504,12 +602,157 @@
 + Dưới x triệu 
 + Trên x triệu </t>
   </si>
+  <si>
+    <t>Tên Công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường
+Web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công ty </t>
+  </si>
+  <si>
+    <t>Phúc lợi</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loại công việc/ Ngành nghề </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CareerBuilder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+12-15 triệu 
++12 triệu 
++ Dưới 12 triệu 
+</t>
+  </si>
+  <si>
+    <t>+12-15 triệu 
++12 triệu 
++ Dưới 12 triệu 
++ 12,000,000 - 15,000,000 
++ 500-800 USD
++ thương lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ 2 năm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++ Không yêu cầu  
++ 2-3 năm 
++ Trên 3 năm </t>
+  </si>
+  <si>
+    <t>Bridge Engineer
+Data Engine</t>
+  </si>
+  <si>
+    <t>CNTT - Phần mềm
+CNTT - Phần cứng / Mạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Full-time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-04
+</t>
+  </si>
+  <si>
+    <t>24/11/2023</t>
+  </si>
+  <si>
+    <t>Hà nội, HN, TPHCM
+Tây Ninh, Cần Thơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+Trưởng nhóm/ Giám sát
++Giám đốc 
++ Phó giám đốc 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopDev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">v </t>
+  </si>
+  <si>
+    <t>VietNamWork</t>
+  </si>
+  <si>
+    <t>Thương lượng
+$1000 - $1800</t>
+  </si>
+  <si>
+    <t>Nhân viên chính thức
+Toàn thời gian 
+Bán thời gian 
+Thực tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior
+Junior
+Middle 
+All levels
+Fresher
+</t>
+  </si>
+  <si>
+    <t>In Office
+Full time 
+In office
+Hybrid
+Remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực tập sinh/Sinh viên
+Nhân viên </t>
+  </si>
+  <si>
+    <t>Phần Mềm CNTT/Dịch vụ Phần mềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopCV </t>
+  </si>
+  <si>
+    <t>Toàn thời gian 
+Bán thời gian 
+Thực tập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhân viên 
+Trưởng nhóm
+Quản lý/Giám sát
+Thực tập sinh </t>
+  </si>
+  <si>
+    <t>Không yêu cầu 
+x-x năm .
+x năm</t>
+  </si>
+  <si>
+    <t>Thỏa thuận 
+x-x USD 
+x-x VNĐ 
+Trên/dưới x USD/VNĐ</t>
+  </si>
+  <si>
+    <t>89 Láng Hạ,
+ Phường Láng Hạ, 
+Quận Đống Đa, 
+Thành phố Hà Nội</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -535,6 +778,39 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -544,7 +820,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -552,11 +828,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -570,8 +879,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -886,9 +1229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A81F992-EB71-4923-B6F3-CCDD3EB17632}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1160,6 +1503,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD78514A-79FA-4AC6-9966-934F3DA11C55}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" style="7" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="7"/>
+    <col min="17" max="17" width="15.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M5" r:id="rId1" display="https://www.vietnamworks.com/viec-lam?i=25" xr:uid="{14ED9A09-84C5-4BD6-89E2-851ECBFFB3F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C9314B-945E-4F79-9FD7-21270EB31E69}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1530,12 +2231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810D0EB-08A8-4A32-97EB-C37E0C61C16C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1671,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD90621B-93AA-4455-9672-35B8A66C2E9E}">
   <dimension ref="A1:E19"/>
   <sheetViews>

--- a/Khảo sát trang tin tuyển dụng.xlsx
+++ b/Khảo sát trang tin tuyển dụng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trung Nguyen\OneDrive\Desktop\DevWorkSpider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292471D2-4AEA-4842-ADC6-A1ACD3031AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F29E09-ABF9-42BE-AF0D-35A3F9439206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{01738CA1-2BAE-4404-9411-442D8BDAE98F}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="187">
   <si>
     <t xml:space="preserve">Trường </t>
   </si>
@@ -584,10 +584,6 @@
     <t>Nội dung</t>
   </si>
   <si>
-    <t>sử dụng thư viện re để lấy ra 2 số 
-vd: 10-12 triệu -&gt; ['10','12'] -&gt; Lấy ra lương trung bình -&gt; 11</t>
-  </si>
-  <si>
     <t>- x năm
 - Trên x năm 
 - Dưới x năm 
@@ -746,6 +742,20 @@
  Phường Láng Hạ, 
 Quận Đống Đa, 
 Thành phố Hà Nội</t>
+  </si>
+  <si>
+    <t>sử dụng thư viện re để lấy ra 2 số 
+vd: 10-12 triệu -&gt; ['10','12'] -&gt; Lấy ra lương trung bình -&gt; 11
++</t>
+  </si>
+  <si>
+    <t>Dạng list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dạng list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import thử vào DB xem có được không </t>
   </si>
 </sst>
 </file>
@@ -1534,13 +1544,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -1555,7 +1565,7 @@
         <v>70</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>123</v>
@@ -1567,10 +1577,10 @@
         <v>15</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>127</v>
@@ -1587,7 +1597,7 @@
     </row>
     <row r="2" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>133</v>
@@ -1596,40 +1606,40 @@
         <v>133</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>168</v>
-      </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P2" s="9">
         <v>2</v>
@@ -1664,25 +1674,25 @@
         <v>133</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="P3" s="9">
         <v>1</v>
@@ -1693,7 +1703,7 @@
     </row>
     <row r="4" spans="1:17" ht="131.25" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>133</v>
@@ -1702,7 +1712,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>45</v>
@@ -1714,7 +1724,7 @@
         <v>133</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>38</v>
@@ -1723,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>41</v>
@@ -1732,7 +1742,7 @@
         <v>43</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>41</v>
@@ -1746,7 +1756,7 @@
     </row>
     <row r="5" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>133</v>
@@ -1770,19 +1780,19 @@
         <v>133</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>41</v>
@@ -1799,7 +1809,7 @@
     </row>
     <row r="6" spans="1:17" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>133</v>
@@ -1808,7 +1818,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>41</v>
@@ -1823,13 +1833,13 @@
         <v>133</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>41</v>
@@ -1838,10 +1848,10 @@
         <v>41</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P6" s="9">
         <v>1</v>
@@ -2235,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B810D0EB-08A8-4A32-97EB-C37E0C61C16C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2299,6 +2309,12 @@
       <c r="A6" t="s">
         <v>122</v>
       </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2309,26 +2325,35 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="75" x14ac:dyDescent="0.3">
@@ -2336,10 +2361,10 @@
         <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
